--- a/biology/Mycologie/Coprin_grégaire/Coprin_grégaire.xlsx
+++ b/biology/Mycologie/Coprin_grégaire/Coprin_grégaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Coprin_gr%C3%A9gaire</t>
+          <t>Coprin_grégaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coprinus disseminatus · Coprin grégaire, Coprin disséminé
 Coprinellus disseminatus, le Coprin grégaire ou Coprin disséminé, est une espèce de champignons basidiomycètes du genre Coprinellus et de la famille des Psathyrellaceae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Coprin_gr%C3%A9gaire</t>
+          <t>Coprin_grégaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Habitat et spécificité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les coprins sont des champignons saprophytes fort communs vivant sur les sols fumés ou les bois en décomposition dont le chapeau et les lames pâles au début noircissent assez rapidement par déliquescence en se transformant ainsi en une espèce de liquide semblable à de l'encre de Chine, et qui contient les spores du champignon, qui se propagent ainsi dans le sol, il se développe en groupes de nombreux individus. Sa durée de vie est brève : au delà de 24 heures, les carpophores se dégradent.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Coprin_gr%C3%A9gaire</t>
+          <t>Coprin_grégaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Chapeau : de 7 à 15 mm, semi ovoïde puis rapidement en cloche, plissé et finement velouté, de couleur crème à fauve clair puis devenant grisâtre, il se rencontre du début de l'été et jusqu'à la fin de l'automne
 Lames: délicates, de couleur blanche puis devenant grisâtres et enfin noires.
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Coprin_gr%C3%A9gaire</t>
+          <t>Coprin_grégaire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Confusions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Possible avec la Psathyrelle pygmée dont le pied est toutefois plus court.
 </t>
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Coprin_gr%C3%A9gaire</t>
+          <t>Coprin_grégaire</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,14 +629,16 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cette espèce a plusieurs synonymes : 
-Agaricus disseminatus Pers.[2]
-Coprinarius disseminatus (Pers.) P. Kumm.[2]
-Coprinus disseminatus (Pers. : Fr.) SF Gray[2]
-Psathyrella disseminata (Pers.) Quél.[2]
-Pseudocoprinus disseminatus (Pers.) Kühner[2]</t>
+Agaricus disseminatus Pers.
+Coprinarius disseminatus (Pers.) P. Kumm.
+Coprinus disseminatus (Pers. : Fr.) SF Gray
+Psathyrella disseminata (Pers.) Quél.
+Pseudocoprinus disseminatus (Pers.) Kühner</t>
         </is>
       </c>
     </row>
